--- a/biology/Biochimie/2,6-Diaminopurine/2,6-Diaminopurine.xlsx
+++ b/biology/Biochimie/2,6-Diaminopurine/2,6-Diaminopurine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La 2,6-diaminopurine, ou 2-aminoadénine, est un composé organique hétérocyclique de la famille des purines. Cette base nucléique, très semblable à l'adénine, s'en distingue par la présence d'un groupe amine –NH2 sur l'atome de carbone 2. Cette amine supplémentaire permet à cette base de s'apparier avec la thymine ou avec l'uracile en formant trois liaisons hydrogène et non deux comme l'adénine[3].
-La 2,6-diaminopurine fait partie des bases observées dans plusieurs chondrites carbonées, suggérant que des bases nucléiques seraient présentes dans les astéroïdes et autres corps rocheux en orbite dans le Système solaire[4],[5].
+La 2,6-diaminopurine, ou 2-aminoadénine, est un composé organique hétérocyclique de la famille des purines. Cette base nucléique, très semblable à l'adénine, s'en distingue par la présence d'un groupe amine –NH2 sur l'atome de carbone 2. Cette amine supplémentaire permet à cette base de s'apparier avec la thymine ou avec l'uracile en formant trois liaisons hydrogène et non deux comme l'adénine.
+La 2,6-diaminopurine fait partie des bases observées dans plusieurs chondrites carbonées, suggérant que des bases nucléiques seraient présentes dans les astéroïdes et autres corps rocheux en orbite dans le Système solaire,.
 </t>
         </is>
       </c>
